--- a/team_specific_matrix/North Texas_B.xlsx
+++ b/team_specific_matrix/North Texas_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2060301507537688</v>
+        <v>0.2016806722689076</v>
       </c>
       <c r="C2">
-        <v>0.5125628140703518</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03517587939698492</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1507537688442211</v>
+        <v>0.1512605042016807</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09547738693467336</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009615384615384616</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="C3">
-        <v>0.03846153846153846</v>
+        <v>0.03816793893129771</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0576923076923077</v>
+        <v>0.05343511450381679</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7211538461538461</v>
+        <v>0.7251908396946565</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1730769230769231</v>
+        <v>0.1679389312977099</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03225806451612903</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03225806451612903</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="P4">
-        <v>0.7419354838709677</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1935483870967742</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1008403361344538</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01680672268907563</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05882352941176471</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2352941176470588</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03361344537815126</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.134453781512605</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="R6">
-        <v>0.06722689075630252</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="S6">
-        <v>0.3529411764705883</v>
+        <v>0.355072463768116</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1195652173913044</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03260869565217391</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07608695652173914</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1304347826086956</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1956521739130435</v>
+        <v>0.1727272727272727</v>
       </c>
       <c r="R7">
-        <v>0.08695652173913043</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="S7">
-        <v>0.358695652173913</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09917355371900827</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01652892561983471</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05785123966942149</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1322314049586777</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.004132231404958678</v>
+        <v>0.003472222222222222</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1363636363636364</v>
+        <v>0.1319444444444444</v>
       </c>
       <c r="R8">
-        <v>0.1074380165289256</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="S8">
-        <v>0.4462809917355372</v>
+        <v>0.4548611111111111</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08148148148148149</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02962962962962963</v>
+        <v>0.04605263157894737</v>
       </c>
       <c r="E9">
-        <v>0.007407407407407408</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="F9">
-        <v>0.06666666666666667</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1037037037037037</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01481481481481482</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1925925925925926</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="R9">
-        <v>0.04444444444444445</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="S9">
-        <v>0.4592592592592593</v>
+        <v>0.4671052631578947</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1287262872628726</v>
+        <v>0.1267281105990783</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02439024390243903</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06639566395663957</v>
+        <v>0.06682027649769585</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1571815718157182</v>
+        <v>0.1589861751152074</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01897018970189702</v>
+        <v>0.0195852534562212</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1598915989159892</v>
+        <v>0.1658986175115207</v>
       </c>
       <c r="R10">
-        <v>0.07317073170731707</v>
+        <v>0.07373271889400922</v>
       </c>
       <c r="S10">
-        <v>0.3712737127371274</v>
+        <v>0.3652073732718894</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.006211180124223602</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="G11">
-        <v>0.15527950310559</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08074534161490683</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="K11">
-        <v>0.2111801242236025</v>
+        <v>0.2119565217391304</v>
       </c>
       <c r="L11">
-        <v>0.5403726708074534</v>
+        <v>0.5326086956521739</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006211180124223602</v>
+        <v>0.0108695652173913</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6966292134831461</v>
+        <v>0.7128712871287128</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2359550561797753</v>
+        <v>0.2079207920792079</v>
       </c>
       <c r="K12">
-        <v>0.01123595505617977</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="L12">
-        <v>0.03370786516853932</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02247191011235955</v>
+        <v>0.0297029702970297</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5625</v>
+        <v>0.65</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01515151515151515</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1515151515151515</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="I15">
-        <v>0.1212121212121212</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="J15">
-        <v>0.3484848484848485</v>
+        <v>0.3375796178343949</v>
       </c>
       <c r="K15">
-        <v>0.07575757575757576</v>
+        <v>0.07006369426751592</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007575757575757576</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05303030303030303</v>
+        <v>0.06369426751592357</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2272727272727273</v>
+        <v>0.2420382165605096</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007874015748031496</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1889763779527559</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="I16">
-        <v>0.08661417322834646</v>
+        <v>0.07741935483870968</v>
       </c>
       <c r="J16">
-        <v>0.4330708661417323</v>
+        <v>0.4387096774193548</v>
       </c>
       <c r="K16">
-        <v>0.09448818897637795</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02362204724409449</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03937007874015748</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1259842519685039</v>
+        <v>0.1225806451612903</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01421800947867299</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2132701421800948</v>
+        <v>0.2208835341365462</v>
       </c>
       <c r="I17">
-        <v>0.09004739336492891</v>
+        <v>0.08835341365461848</v>
       </c>
       <c r="J17">
-        <v>0.3317535545023697</v>
+        <v>0.3253012048192771</v>
       </c>
       <c r="K17">
-        <v>0.08530805687203792</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01895734597156398</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04739336492890995</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1990521327014218</v>
+        <v>0.2008032128514056</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.05102040816326531</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.173469387755102</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="I18">
-        <v>0.1020408163265306</v>
+        <v>0.09009009009009009</v>
       </c>
       <c r="J18">
-        <v>0.3979591836734694</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="K18">
-        <v>0.07142857142857142</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05102040816326531</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1530612244897959</v>
+        <v>0.1441441441441441</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0115979381443299</v>
+        <v>0.0121012101210121</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1804123711340206</v>
+        <v>0.1804180418041804</v>
       </c>
       <c r="I19">
-        <v>0.1018041237113402</v>
+        <v>0.1012101210121012</v>
       </c>
       <c r="J19">
-        <v>0.3646907216494845</v>
+        <v>0.3718371837183718</v>
       </c>
       <c r="K19">
-        <v>0.1018041237113402</v>
+        <v>0.09680968096809681</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0115979381443299</v>
+        <v>0.0143014301430143</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07731958762886598</v>
+        <v>0.08030803080308031</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1507731958762887</v>
+        <v>0.143014301430143</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/North Texas_B.xlsx
+++ b/team_specific_matrix/North Texas_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2016806722689076</v>
+        <v>0.2014925373134328</v>
       </c>
       <c r="C2">
-        <v>0.5294117647058824</v>
+        <v>0.5335820895522388</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02941176470588235</v>
+        <v>0.02611940298507463</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1512605042016807</v>
+        <v>0.1529850746268657</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08823529411764706</v>
+        <v>0.08582089552238806</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01526717557251908</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C3">
-        <v>0.03816793893129771</v>
+        <v>0.03378378378378379</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05343511450381679</v>
+        <v>0.0472972972972973</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7251908396946565</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1679389312977099</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05405405405405406</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P4">
-        <v>0.7297297297297297</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1891891891891892</v>
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1014492753623188</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01449275362318841</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05797101449275362</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2173913043478261</v>
+        <v>0.2171052631578947</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03623188405797102</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1521739130434783</v>
+        <v>0.1513157894736842</v>
       </c>
       <c r="R6">
-        <v>0.06521739130434782</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="S6">
-        <v>0.355072463768116</v>
+        <v>0.3486842105263158</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1363636363636364</v>
+        <v>0.1472868217054264</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03636363636363636</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07272727272727272</v>
+        <v>0.06201550387596899</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1272727272727273</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1727272727272727</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="R7">
-        <v>0.07272727272727272</v>
+        <v>0.07751937984496124</v>
       </c>
       <c r="S7">
-        <v>0.3818181818181818</v>
+        <v>0.3798449612403101</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1111111111111111</v>
+        <v>0.1072555205047319</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01388888888888889</v>
+        <v>0.01261829652996845</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05208333333333334</v>
+        <v>0.0473186119873817</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1354166666666667</v>
+        <v>0.1356466876971609</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.003472222222222222</v>
+        <v>0.006309148264984227</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1319444444444444</v>
+        <v>0.1324921135646688</v>
       </c>
       <c r="R8">
-        <v>0.09722222222222222</v>
+        <v>0.1041009463722398</v>
       </c>
       <c r="S8">
-        <v>0.4548611111111111</v>
+        <v>0.4542586750788644</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08552631578947369</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04605263157894737</v>
+        <v>0.04848484848484848</v>
       </c>
       <c r="E9">
-        <v>0.006578947368421052</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="F9">
-        <v>0.06578947368421052</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09210526315789473</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0131578947368421</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1842105263157895</v>
+        <v>0.1757575757575758</v>
       </c>
       <c r="R9">
-        <v>0.03947368421052631</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="S9">
-        <v>0.4671052631578947</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1267281105990783</v>
+        <v>0.1297071129707113</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02304147465437788</v>
+        <v>0.02092050209205021</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06682027649769585</v>
+        <v>0.06799163179916318</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1589861751152074</v>
+        <v>0.153765690376569</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0195852534562212</v>
+        <v>0.01882845188284519</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1658986175115207</v>
+        <v>0.1642259414225941</v>
       </c>
       <c r="R10">
-        <v>0.07373271889400922</v>
+        <v>0.07531380753138076</v>
       </c>
       <c r="S10">
-        <v>0.3652073732718894</v>
+        <v>0.3692468619246862</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.005434782608695652</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="G11">
-        <v>0.1630434782608696</v>
+        <v>0.1683168316831683</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07608695652173914</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="K11">
-        <v>0.2119565217391304</v>
+        <v>0.202970297029703</v>
       </c>
       <c r="L11">
-        <v>0.5326086956521739</v>
+        <v>0.5445544554455446</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0108695652173913</v>
+        <v>0.009900990099009901</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7128712871287128</v>
+        <v>0.7130434782608696</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2079207920792079</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>0.009900990099009901</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="L12">
-        <v>0.0396039603960396</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0297029702970297</v>
+        <v>0.02608695652173913</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G13">
-        <v>0.65</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01273885350318471</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1592356687898089</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I15">
-        <v>0.1082802547770701</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="J15">
-        <v>0.3375796178343949</v>
+        <v>0.3390804597701149</v>
       </c>
       <c r="K15">
-        <v>0.07006369426751592</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006369426751592357</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06369426751592357</v>
+        <v>0.06321839080459771</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2420382165605096</v>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006451612903225806</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1935483870967742</v>
+        <v>0.1871345029239766</v>
       </c>
       <c r="I16">
-        <v>0.07741935483870968</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="J16">
-        <v>0.4387096774193548</v>
+        <v>0.4269005847953216</v>
       </c>
       <c r="K16">
-        <v>0.09677419354838709</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03225806451612903</v>
+        <v>0.04093567251461988</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03225806451612903</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1225806451612903</v>
+        <v>0.1228070175438596</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01606425702811245</v>
+        <v>0.01838235294117647</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2208835341365462</v>
+        <v>0.2169117647058824</v>
       </c>
       <c r="I17">
-        <v>0.08835341365461848</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="J17">
-        <v>0.3253012048192771</v>
+        <v>0.3345588235294117</v>
       </c>
       <c r="K17">
-        <v>0.08433734939759036</v>
+        <v>0.08455882352941177</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01606425702811245</v>
+        <v>0.01838235294117647</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04819277108433735</v>
+        <v>0.04779411764705882</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.2008032128514056</v>
+        <v>0.1838235294117647</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04504504504504504</v>
+        <v>0.03875968992248062</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1621621621621622</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="I18">
-        <v>0.09009009009009009</v>
+        <v>0.08527131782945736</v>
       </c>
       <c r="J18">
-        <v>0.4324324324324325</v>
+        <v>0.4496124031007752</v>
       </c>
       <c r="K18">
-        <v>0.08108108108108109</v>
+        <v>0.08527131782945736</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04504504504504504</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1441441441441441</v>
+        <v>0.124031007751938</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0121012101210121</v>
+        <v>0.01206030150753769</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1804180418041804</v>
+        <v>0.1798994974874372</v>
       </c>
       <c r="I19">
-        <v>0.1012101210121012</v>
+        <v>0.09748743718592964</v>
       </c>
       <c r="J19">
-        <v>0.3718371837183718</v>
+        <v>0.3788944723618091</v>
       </c>
       <c r="K19">
-        <v>0.09680968096809681</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0143014301430143</v>
+        <v>0.01608040201005025</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08030803080308031</v>
+        <v>0.0814070351758794</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.143014301430143</v>
+        <v>0.1386934673366834</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/North Texas_B.xlsx
+++ b/team_specific_matrix/North Texas_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2014925373134328</v>
+        <v>0.21</v>
       </c>
       <c r="C2">
-        <v>0.5335820895522388</v>
+        <v>0.5266666666666666</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02611940298507463</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1529850746268657</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08582089552238806</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01351351351351351</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C3">
-        <v>0.03378378378378379</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0472972972972973</v>
+        <v>0.0426829268292683</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7162162162162162</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1891891891891892</v>
+        <v>0.1890243902439024</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05128205128205128</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02564102564102564</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P4">
-        <v>0.717948717948718</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2051282051282051</v>
+        <v>0.2093023255813954</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1052631578947368</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0131578947368421</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05921052631578947</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2171052631578947</v>
+        <v>0.225609756097561</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03289473684210526</v>
+        <v>0.03048780487804878</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1513157894736842</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="R6">
-        <v>0.07236842105263158</v>
+        <v>0.06707317073170732</v>
       </c>
       <c r="S6">
-        <v>0.3486842105263158</v>
+        <v>0.3597560975609756</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1472868217054264</v>
+        <v>0.1655172413793103</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04651162790697674</v>
+        <v>0.04827586206896552</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06201550387596899</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1162790697674419</v>
+        <v>0.1103448275862069</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007751937984496124</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1627906976744186</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="R7">
-        <v>0.07751937984496124</v>
+        <v>0.07586206896551724</v>
       </c>
       <c r="S7">
-        <v>0.3798449612403101</v>
+        <v>0.3586206896551724</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1072555205047319</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01261829652996845</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0473186119873817</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1356466876971609</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006309148264984227</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1324921135646688</v>
+        <v>0.1408045977011494</v>
       </c>
       <c r="R8">
-        <v>0.1041009463722398</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="S8">
-        <v>0.4542586750788644</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08484848484848485</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04848484848484848</v>
+        <v>0.04371584699453552</v>
       </c>
       <c r="E9">
-        <v>0.006060606060606061</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="F9">
-        <v>0.07878787878787878</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08484848484848485</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01212121212121212</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1757575757575758</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="R9">
-        <v>0.04242424242424243</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="S9">
-        <v>0.4666666666666667</v>
+        <v>0.453551912568306</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1297071129707113</v>
+        <v>0.1281800391389432</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02092050209205021</v>
+        <v>0.02250489236790607</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06799163179916318</v>
+        <v>0.0675146771037182</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.153765690376569</v>
+        <v>0.1477495107632094</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01882845188284519</v>
+        <v>0.01859099804305284</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1642259414225941</v>
+        <v>0.1692759295499021</v>
       </c>
       <c r="R10">
-        <v>0.07531380753138076</v>
+        <v>0.07827788649706457</v>
       </c>
       <c r="S10">
-        <v>0.3692468619246862</v>
+        <v>0.3679060665362035</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.004950495049504951</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="G11">
-        <v>0.1683168316831683</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06930693069306931</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="K11">
-        <v>0.202970297029703</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L11">
-        <v>0.5445544554455446</v>
+        <v>0.5622119815668203</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009900990099009901</v>
+        <v>0.01382488479262673</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7130434782608696</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="K12">
-        <v>0.01739130434782609</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="L12">
-        <v>0.04347826086956522</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02608695652173913</v>
+        <v>0.02307692307692308</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.03846153846153846</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G13">
-        <v>0.6923076923076923</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1923076923076923</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07692307692307693</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01149425287356322</v>
+        <v>0.015625</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="I15">
-        <v>0.103448275862069</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="J15">
-        <v>0.3390804597701149</v>
+        <v>0.3385416666666667</v>
       </c>
       <c r="K15">
-        <v>0.06896551724137931</v>
+        <v>0.0625</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005747126436781609</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06321839080459771</v>
+        <v>0.05729166666666666</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2413793103448276</v>
+        <v>0.2552083333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005847953216374269</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1871345029239766</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="I16">
-        <v>0.08187134502923976</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="J16">
-        <v>0.4269005847953216</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="K16">
-        <v>0.1052631578947368</v>
+        <v>0.1210526315789474</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04093567251461988</v>
+        <v>0.03684210526315789</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="O16">
-        <v>0.02923976608187134</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1228070175438596</v>
+        <v>0.1157894736842105</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01838235294117647</v>
+        <v>0.0231023102310231</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2169117647058824</v>
+        <v>0.2145214521452145</v>
       </c>
       <c r="I17">
-        <v>0.09558823529411764</v>
+        <v>0.1023102310231023</v>
       </c>
       <c r="J17">
-        <v>0.3345588235294117</v>
+        <v>0.3201320132013201</v>
       </c>
       <c r="K17">
-        <v>0.08455882352941177</v>
+        <v>0.08580858085808581</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01838235294117647</v>
+        <v>0.0231023102310231</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04779411764705882</v>
+        <v>0.05280528052805281</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1838235294117647</v>
+        <v>0.1782178217821782</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03875968992248062</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1705426356589147</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="I18">
-        <v>0.08527131782945736</v>
+        <v>0.09154929577464789</v>
       </c>
       <c r="J18">
-        <v>0.4496124031007752</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="K18">
-        <v>0.08527131782945736</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04651162790697674</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.124031007751938</v>
+        <v>0.1126760563380282</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01206030150753769</v>
+        <v>0.01210428305400372</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1798994974874372</v>
+        <v>0.1815642458100559</v>
       </c>
       <c r="I19">
-        <v>0.09748743718592964</v>
+        <v>0.09683426443202979</v>
       </c>
       <c r="J19">
-        <v>0.3788944723618091</v>
+        <v>0.3780260707635009</v>
       </c>
       <c r="K19">
-        <v>0.09547738693467336</v>
+        <v>0.09310986964618249</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01608040201005025</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0814070351758794</v>
+        <v>0.08379888268156424</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1386934673366834</v>
+        <v>0.1378026070763501</v>
       </c>
     </row>
   </sheetData>
